--- a/PCB-RevA/BOM/BOM-JLCPCB.xlsx
+++ b/PCB-RevA/BOM/BOM-JLCPCB.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="212">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">JLCPCB Part</t>
   </si>
   <si>
-    <t xml:space="preserve">C1, C4-C8, C10, C12, C14, C18, C20, C23-C32, C38, C39, C41, C42, C45, C46, C52, C54, C55, C58, C62, C63, C68, C71, C72, C76, C93, C113, C141-C146, C166-C171, C180, C182</t>
+    <t xml:space="preserve">C1, C4, C5, C6, C7, C8, C10, C12, C14, C18, C20, C23, C24, C25, C26, C27, C28, C29, C30, C31, C32, C38, C39, C41, C42, C45, C46, C52, C54, C55, C58, C62, C63, C68, C71, C72, C76, C93, C113, C141, C142, C143, C144, C145, C146, C166, C167, C168, C169, C170, C171, C180, C182</t>
   </si>
   <si>
     <t xml:space="preserve">100n</t>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL05B104KO5NNNC_C1525.html</t>
   </si>
   <si>
-    <t xml:space="preserve">C2, C3, C16, C17, C19, C33-C37, C43, C53, C90-C92, C94, C99, C110-C112, C114, C119, C132, C135, C140, C157, C160, C165, C181</t>
+    <t xml:space="preserve">C2, C3, C16, C17, C19, C33, C34, C35, C36, C37, C43, C53, C90, C91, C92, C94, C99, C110, C110, C112, C114, C119, C132, C135, C140, C157, C160, C165, C181</t>
   </si>
   <si>
     <t xml:space="preserve">1u 16V</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_FH-Guangdong-Fenghua-Advanced-Tech-0603B105K250NT_C59302.html</t>
   </si>
   <si>
-    <t xml:space="preserve">C9, C49-C51, C56, C73-C75, C77-C79</t>
+    <t xml:space="preserve">C9, C49, C50, C51, C56, C73, C74, C75, C77, C78, C79</t>
   </si>
   <si>
     <t xml:space="preserve">10u</t>
@@ -94,28 +94,28 @@
     <t xml:space="preserve">https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL10A475KO8NNNC_C19666.html</t>
   </si>
   <si>
-    <t xml:space="preserve">C15, C80, C81, C86-C89, C97, C98, C108, C109, C117, C118, C128, C129, C133, C134, C138, C139, C150, C158, C159, C163, C164, C175</t>
+    <t xml:space="preserve">C15, C80, C81, C86, C87, C88, C89, C97, C98, C108, C109, C117, C118, C128, C129, C133, C134, C138, C139, C150, C158, C159, C163, C164, C175</t>
   </si>
   <si>
     <t xml:space="preserve">10n</t>
   </si>
   <si>
-    <t xml:space="preserve">C60133 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402KRX7R9BB103_C60133.html</t>
+    <t xml:space="preserve">C15195 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL05B103KB5NNNC_C15195.html</t>
   </si>
   <si>
     <t xml:space="preserve">C21, C22</t>
   </si>
   <si>
-    <t xml:space="preserve">6p8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1576 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_FH-Guangdong-Fenghua-Advanced-Tech-0402CG6R8C500NT_C1576.html</t>
+    <t xml:space="preserve">8p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C610103 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_VIIYONG-V8R0D0402C0G500NBT_C610103.html</t>
   </si>
   <si>
     <t xml:space="preserve">C40, C44, C57, C59, C61, C64, C65, C67, C70, C147, C172</t>
@@ -124,16 +124,16 @@
     <t xml:space="preserve">10u 16V</t>
   </si>
   <si>
-    <t xml:space="preserve">C47, C48, C95, C96, C100-C107, C115, C116, C120-C127, C130, C131, C136, C137, C151-C156, C161, C162, C176-C179</t>
+    <t xml:space="preserve">C47, C48, C95, C96, C100, C101, C102, C103, C104, C105, C106, C107, C115, C116, C120, C121, C122, C123, C124, C125, C126, C127, C130, C131, C136, C137, C151, C152, C153, C154, C155, C156, C161, C162, C176, C177, C178, C179</t>
   </si>
   <si>
     <t xml:space="preserve">330p</t>
   </si>
   <si>
-    <t xml:space="preserve">C106206 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402KRX7R9BB331_C106206.html</t>
+    <t xml:space="preserve">C13533 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Samsung-Electro-Mechanics-CL05C331JB5NNNC_C13533.html</t>
   </si>
   <si>
     <t xml:space="preserve">C66, C69, C148, C173</t>
@@ -157,10 +157,10 @@
     <t xml:space="preserve">47p</t>
   </si>
   <si>
-    <t xml:space="preserve">C60137 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402JRNPO9BN470_C60137.html</t>
+    <t xml:space="preserve">C1567 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_FH-Guangdong-Fenghua-Advanced-Tech-0402CG470J500NT_C1567.html</t>
   </si>
   <si>
     <t xml:space="preserve">C84, C85</t>
@@ -169,13 +169,13 @@
     <t xml:space="preserve">2.2n</t>
   </si>
   <si>
-    <t xml:space="preserve">C106861 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0402KRX7R9BB222_C106861.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1-D3, D8-D10</t>
+    <t xml:space="preserve">C1531 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_FH-Guangdong-Fenghua-Advanced-Tech-0402B222K500NT_C1531.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1, D2, D3, D3, D8, D9, D10</t>
   </si>
   <si>
     <t xml:space="preserve">LED</t>
@@ -205,7 +205,7 @@
     <t xml:space="preserve">https://www.lcsc.com/product-detail/span-style-background-color-ff0-ESD-span-Protection-Devices_LGE-ESD5Z15_C5369351.html</t>
   </si>
   <si>
-    <t xml:space="preserve">D6, D7, D17, D18, D21, D22, D25, D26, D31, D32, D35, D36, D39-D42, D45, D46, D53, D54, D57, D58</t>
+    <t xml:space="preserve">D6, D7, D17, D18, D21, D22, D25, D26, D31, D32, D35, D36, D39, D40, D41, D42, D45, D46, D53, D54, D57, D58</t>
   </si>
   <si>
     <t xml:space="preserve">ESD9B5.0ST5G</t>
@@ -220,7 +220,7 @@
     <t xml:space="preserve">https://www.lcsc.com/product-detail/span-style-background-color-ff0-ESD-span-Protection-Devices_TECH-PUBLIC-ESD9B5VD_C2835422.html</t>
   </si>
   <si>
-    <t xml:space="preserve">D13-D16, D19, D20, D23, D24, D27-D30, D33, D34, D37, D38, D43, D44, D47, D48, D55, D56, D59, D60</t>
+    <t xml:space="preserve">D13, D14, D15, D16, D19, D20, D23, D24, D27, D28, D29, D30, D33, D34, D37, D38, D43, D44, D47, D48, D55, D56, D59, D60</t>
   </si>
   <si>
     <t xml:space="preserve">BAT54S</t>
@@ -235,7 +235,7 @@
     <t xml:space="preserve">https://www.lcsc.com/product-detail/Schottky-Barrier-Diodes-SBD_Guangdong-Hottech-BAT54S_C181201.html</t>
   </si>
   <si>
-    <t xml:space="preserve">D49-D52, D61-D64</t>
+    <t xml:space="preserve">D49, D50, D51, D52, D61, D62, D63, D64</t>
   </si>
   <si>
     <t xml:space="preserve">SD12_SOD323</t>
@@ -244,10 +244,10 @@
     <t xml:space="preserve">Diode_SMD:D_SOD-323</t>
   </si>
   <si>
-    <t xml:space="preserve">C911370 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lcsc.com/product-detail/ESD-Protection-Devices_BOURNS-CDSOD323-T15LC_C911370.html</t>
+    <t xml:space="preserve">C521915 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/ESD-Protection-Devices_TECH-PUBLIC-ESD5V0B03-323_C521915.html</t>
   </si>
   <si>
     <t xml:space="preserve">F1, F2</t>
@@ -265,7 +265,7 @@
     <t xml:space="preserve">https://www.lcsc.com/product-detail/Resettable-Fuses_BHFUSE-BSMD1812-200-16V_C883156.html</t>
   </si>
   <si>
-    <t xml:space="preserve">F3-F10</t>
+    <t xml:space="preserve">F3, F4, F5, F6, F7, F8, F9, F10</t>
   </si>
   <si>
     <t xml:space="preserve">30mA</t>
@@ -319,6 +319,12 @@
     <t xml:space="preserve">Inductor_SMD:L_Chilisin_BMRA00050520</t>
   </si>
   <si>
+    <t xml:space="preserve">C2041615 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/Inductors-SMD_Vishay-Intertech-IHLP2020CZER1R5M11_C2041615.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">L2, L3</t>
   </si>
   <si>
@@ -334,31 +340,31 @@
     <t xml:space="preserve">https://www.lcsc.com/product-detail/Inductors-SMD_KOHERelec-MDA5030-6R8M_C2847478.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Q1-Q3, Q5, Q6, Q9-Q12, Q17, Q18</t>
+    <t xml:space="preserve">Q1, Q2, Q3, Q5, Q6, Q9, Q10, Q11, Q12, Q17, Q18</t>
   </si>
   <si>
     <t xml:space="preserve">BSS84</t>
   </si>
   <si>
-    <t xml:space="preserve">C2926187 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lcsc.com/product-detail/MOSFETs_FOSAN-BSS84_C2926187.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4, Q7, Q8, Q13, Q15, Q16, Q19, Q20, Q27-Q37</t>
+    <t xml:space="preserve">C8492 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/MOSFETs_LRC-LBSS84LT1G_C8492.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4, Q7, Q8, Q13, Q15, Q16, Q19, Q20, Q27, Q28, Q29, Q30, Q31, Q32, Q33, Q34, Q35, Q36, Q37</t>
   </si>
   <si>
     <t xml:space="preserve">2N7002</t>
   </si>
   <si>
-    <t xml:space="preserve">C916396 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lcsc.com/product-detail/MOSFETs_JSMSEMI-2N7002_C916396.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1-R4, R6-R8, R13-R20, R31, R33, R39-R41, R43, R51, R53, R55, R57, R61, R62, R65, R68, R70-R75, R84, R85, R90-R97, R110-R112, R114, R124, R125, R134, R135, R140-R147, R160-R162, R164</t>
+    <t xml:space="preserve">C8545 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/MOSFETs_Jiangsu-Changjing-Electronics-Technology-Co-Ltd-2N7002_C8545.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1, R2, R3, R4, R6, R7, R8, R13, R14, R15, R16, R17, R18, R19, R20, R31, R33, R39, R40, R41, R43, R51, R53, R55, R57, R61, R62, R65, R68, R70, R71, R72, R73, R74, R75, R84, R85, R90, R91, R92, R93, R94, R95, R96, R97, R110, R111, R112, R114, R124, R125, R134, R135, R140, R141, R412, R143, R144, R145, R146, R147, R160, R161, R162, R164</t>
   </si>
   <si>
     <t xml:space="preserve">10K</t>
@@ -367,28 +373,28 @@
     <t xml:space="preserve">Resistor_SMD:R_0402_1005Metric</t>
   </si>
   <si>
-    <t xml:space="preserve">C60490 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0402FR-0710KL_C60490.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5, R9, R28-R30, R32, R34, R36-R38, R44, R46, R48, R49, R52, R152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C25152 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0402WGJ0220TCE_C25152.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R10-R12, R23-R25, R35, R50, R78-R81, R100, R101, R104, R105, R107, R109, R113, R115, R128-R131, R150, R151, R153, R163, R165, R184, R185, R198, R199, R202-R206, R219, R220, R233, R234, R237-R240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C12246 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0402WGJ0331TCE_C12246.html</t>
+    <t xml:space="preserve">C25744 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0402WGF1002TCE_C25744.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5, R9, R28, R29, R30, R32, R34, R36, R37, R38, R44, R46, R48, R49, R52, R152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0402WGF220JTCE_C25092.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R10, R11, R12, R23, R24, R25, R35, R50, R78, R79, R80, R81, R100, R101, R104, R105, R107, R109, R113, R115, R128, R129, R130, R131, R150, R151, R153, R163, R165, R184, R185, R198, R199, R202, R203, R204, R205, R206, R219, R220, R233, R234, R237, R238, R239, R240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25104 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0402WGF3300TCE_C25104.html</t>
   </si>
   <si>
     <t xml:space="preserve">R21, R22, R26, R27, R45, R47, R54, R56, R69, R86, R87, R120, R121, R136, R137, R170, R171, R178, R179, R192, R193, R213, R214, R227, R228</t>
@@ -397,10 +403,10 @@
     <t xml:space="preserve">2K4</t>
   </si>
   <si>
-    <t xml:space="preserve">C112296 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0402FR-072K4L_C112296.html</t>
+    <t xml:space="preserve">C25882 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0402WGF2401TCE_C25882.html</t>
   </si>
   <si>
     <t xml:space="preserve">R42, R116, R118, R166, R168</t>
@@ -415,16 +421,16 @@
     <t xml:space="preserve">https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0402WGF2203TCE_C25767.html</t>
   </si>
   <si>
-    <t xml:space="preserve">R58, R76, R77, R82, R83, R98, R99, R102, R103, R106, R108, R117, R119, R126, R127, R132, R133, R148, R149, R154, R167, R169, R174, R175, R180, R181, R186-R189, R194, R195, R200, R201, R209, R210, R215, R216, R221-R224, R229, R230, R235, R236</t>
+    <t xml:space="preserve">R58, R76, R77, R82, R83, R98, R99, R102, R103, R106, R108, R117, R119, R126, R127, R132, R133, R148, R149, R154, R167, R169, R174, R175, R180, R181, R186, R187, R188, R189, R194, R195, R200, R201, R209, R210, R215, R216, R221-R224, R229, R230, R235, R236</t>
   </si>
   <si>
     <t xml:space="preserve">100K</t>
   </si>
   <si>
-    <t xml:space="preserve">C60491 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0402FR-07100KL_C60491.html</t>
+    <t xml:space="preserve">C25741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0402WGF1003TCE_C25741.html</t>
   </si>
   <si>
     <t xml:space="preserve">R59, R67</t>
@@ -457,10 +463,10 @@
     <t xml:space="preserve">4K7</t>
   </si>
   <si>
-    <t xml:space="preserve">C105871 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RC0402FR-074K7L_C105871.html</t>
+    <t xml:space="preserve">C25900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0402WGF4701TCE_C25900.html</t>
   </si>
   <si>
     <t xml:space="preserve">R207, R208, R242, R243</t>
@@ -469,13 +475,13 @@
     <t xml:space="preserve">Resistor_SMD:R_0805_2012Metric</t>
   </si>
   <si>
-    <t xml:space="preserve">C2930326 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_FOJAN-FRL0805JR430TS_C2930326.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW1-SW3, SW5</t>
+    <t xml:space="preserve">C3000778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_FOJAN-FRL0805JR400TS_C3000778.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW1, SW2, SW3, SW5</t>
   </si>
   <si>
     <t xml:space="preserve">SW_Omron_B3FS</t>
@@ -484,6 +490,12 @@
     <t xml:space="preserve">Button_Switch_SMD:SW_Push_1P1T_NO_6x6mm_H9.5mm</t>
   </si>
   <si>
+    <t xml:space="preserve">C963229 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/Tactile-Switches_G-Switch-GT-TC074E-H080-L1_C963229.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">U1</t>
   </si>
   <si>
@@ -589,7 +601,7 @@
     <t xml:space="preserve">https://www.lcsc.com/product-detail/DC-DC-Converters_Diodes-Incorporated-PAM2423AECADJR_C781891.html</t>
   </si>
   <si>
-    <t xml:space="preserve">U10-U12, U18</t>
+    <t xml:space="preserve">U10, U11, U12, U18</t>
   </si>
   <si>
     <t xml:space="preserve">LMV324</t>
@@ -598,13 +610,13 @@
     <t xml:space="preserve">Package_SO:SOIC-14_3.9x8.7mm_P1.27mm</t>
   </si>
   <si>
-    <t xml:space="preserve">C5342379 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lcsc.com/product-detail/Operational-Amplifier_TECH-PUBLIC-LMV324_C5342379.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U13-U16, U19-U22</t>
+    <t xml:space="preserve">C362275 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/Operational-Amplifier_Gainsil-LMV324-SR_C362275.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U13, U14, U15, U16, U19, U20, U21, U22</t>
   </si>
   <si>
     <t xml:space="preserve">SN74LVC1G14DBV</t>
@@ -744,7 +756,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -758,6 +770,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -845,11 +861,11 @@
   </sheetPr>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F48" activeCellId="0" sqref="F48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D10" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.57"/>
@@ -1020,7 +1036,7 @@
       <c r="D6" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1050,7 +1066,7 @@
       <c r="D7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1110,7 +1126,7 @@
       <c r="D9" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1170,7 +1186,7 @@
       <c r="D11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1200,7 +1216,7 @@
       <c r="D12" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1350,7 +1366,7 @@
       <c r="D17" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1498,8 +1514,12 @@
         <v>98</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="1"/>
+      <c r="E22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1513,22 +1533,22 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1543,10 +1563,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>68</v>
@@ -1554,11 +1574,11 @@
       <c r="D24" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>106</v>
+      <c r="E24" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1573,10 +1593,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>68</v>
@@ -1584,11 +1604,11 @@
       <c r="D25" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>110</v>
+      <c r="E25" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1603,22 +1623,22 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>115</v>
+      <c r="E26" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1633,22 +1653,22 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>22</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>16</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1663,22 +1683,22 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>330</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>122</v>
+      <c r="E28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1693,22 +1713,22 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>125</v>
+      <c r="E29" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1723,22 +1743,22 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1753,22 +1773,22 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>133</v>
+      <c r="E31" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1783,22 +1803,22 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1813,22 +1833,22 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>4</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1843,22 +1863,22 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>24</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1873,22 +1893,22 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>0.43</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>4</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1903,19 +1923,23 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="E36" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1929,22 +1953,22 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1959,22 +1983,22 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1989,22 +2013,22 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2019,22 +2043,22 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2049,22 +2073,22 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2079,22 +2103,22 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2109,22 +2133,22 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2139,22 +2163,22 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>192</v>
+      <c r="E44" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -2169,22 +2193,22 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D45" s="1" t="n">
         <v>8</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -2199,22 +2223,22 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -2229,22 +2253,22 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -2312,9 +2336,6 @@
       <c r="P50" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F28" r:id="rId1" display="https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0402WGJ0331TCE_C12246.html"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/PCB-RevA/BOM/BOM-JLCPCB.xlsx
+++ b/PCB-RevA/BOM/BOM-JLCPCB.xlsx
@@ -421,7 +421,7 @@
     <t xml:space="preserve">https://www.lcsc.com/product-detail/Chip-Resistor-Surface-Mount_UNI-ROYAL-Uniroyal-Elec-0402WGF2203TCE_C25767.html</t>
   </si>
   <si>
-    <t xml:space="preserve">R58, R76, R77, R82, R83, R98, R99, R102, R103, R106, R108, R117, R119, R126, R127, R132, R133, R148, R149, R154, R167, R169, R174, R175, R180, R181, R186, R187, R188, R189, R194, R195, R200, R201, R209, R210, R215, R216, R221-R224, R229, R230, R235, R236</t>
+    <t xml:space="preserve">R58, R76, R77, R82, R83, R98, R99, R102, R103, R106, R108, R117, R119, R126, R127, R132, R133, R148, R149, R154, R167, R169, R174, R175, R180, R181, R186, R187, R188, R189, R194, R195, R200, R201, R209, R210, R215, R216, R221, R222, R223, R224, R229, R230, R235, R236</t>
   </si>
   <si>
     <t xml:space="preserve">100K</t>
@@ -490,10 +490,10 @@
     <t xml:space="preserve">Button_Switch_SMD:SW_Push_1P1T_NO_6x6mm_H9.5mm</t>
   </si>
   <si>
-    <t xml:space="preserve">C963229 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lcsc.com/product-detail/Tactile-Switches_G-Switch-GT-TC074E-H080-L1_C963229.html</t>
+    <t xml:space="preserve">C255812 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/Tactile-Switches_HYP-Hongyuan-Precision-1TS005F-2500-5001_C255812.html</t>
   </si>
   <si>
     <t xml:space="preserve">U1</t>
@@ -535,10 +535,10 @@
     <t xml:space="preserve">Package_SO:SOIC-8_5.275x5.275mm_P1.27mm</t>
   </si>
   <si>
-    <t xml:space="preserve">C115407 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lcsc.com/product-detail/NOR-FLASH_Winbond-Elec-W25Q16JVSNIQ_C115407.html</t>
+    <t xml:space="preserve">C82317 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/NOR-FLASH_Winbond-Elec-W25Q16JVSSIQ_C82317.html</t>
   </si>
   <si>
     <t xml:space="preserve">U5</t>
@@ -622,10 +622,10 @@
     <t xml:space="preserve">SN74LVC1G14DBV</t>
   </si>
   <si>
-    <t xml:space="preserve">C2976657 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lcsc.com/product-detail/Gates_UMW-Youtai-Semiconductor-Co-Ltd-SN74LVC1G14DCKR_C2976657.html</t>
+    <t xml:space="preserve">C434069 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/Inverters_UMW-Youtai-Semiconductor-Co-Ltd-SN74LVC1G14DBVR_C434069.html</t>
   </si>
   <si>
     <t xml:space="preserve">U17, U23</t>
@@ -861,11 +861,11 @@
   </sheetPr>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D10" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.57"/>
@@ -2024,7 +2024,7 @@
       <c r="D39" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="4" t="s">
         <v>171</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -2204,7 +2204,7 @@
       <c r="D45" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="4" t="s">
         <v>200</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -2336,6 +2336,9 @@
       <c r="P50" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E39" r:id="rId1" display="C82317 "/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
